--- a/audit/P4_01_Rapport Analyse.xlsx
+++ b/audit/P4_01_Rapport Analyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macintosh/Documents/JessenRungen_4_26102021/audit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BFB3F9-E163-7F4A-B5BA-73D9352906AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42E0A40-A422-FC47-8C21-BF1DF7657EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="23400" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10 Recommandations SEO" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
   <si>
     <t>N°</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Catégorie</t>
   </si>
   <si>
-    <t>Recommandations</t>
-  </si>
-  <si>
     <t>Bonne pratique à adopter</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>SEO</t>
   </si>
   <si>
-    <t>Organiser le nom de domaine pour l'indexation : Faciliter le crawling</t>
-  </si>
-  <si>
     <t>Présence d'une URL "https" et "http.</t>
   </si>
   <si>
@@ -96,33 +90,9 @@
     <t>SEO &amp; ACCESSIBILITE</t>
   </si>
   <si>
-    <t>Structurer le site : Faciliter la compréhension (Google Bot &amp; Accessibilité)</t>
-  </si>
-  <si>
-    <t>La langue dans le html est "défaut"</t>
-  </si>
-  <si>
     <t>Si la page n'existe que dans une seule langue, indiquer celle-ci</t>
   </si>
   <si>
-    <t>Changer la langue en "fr"</t>
-  </si>
-  <si>
-    <t>Balise &lt;title&gt; non remplie</t>
-  </si>
-  <si>
-    <t>Toujours renseigner correctement ces balises. Elle permettent à Google de connaitre le nom de la page et son sujet</t>
-  </si>
-  <si>
-    <t>Ces balises vont apparaitre dans le résultat Google, elles doivent être renseignées</t>
-  </si>
-  <si>
-    <t>Les remplir en rapport avec la page</t>
-  </si>
-  <si>
-    <t>Balise &lt;description&gt; non remplie</t>
-  </si>
-  <si>
     <t>Afin d'améliorer le référencement par rapport à un mot clé, celui-ci doit apparaitre dans H1</t>
   </si>
   <si>
@@ -132,21 +102,12 @@
     <t>Renommer le H1 de la page d'accueil contenant le mot clé</t>
   </si>
   <si>
-    <t>Certains titres ne semblent pas se suivre de manière logique (imbrication logique = h1 puis h2 puis h3 etc.).</t>
-  </si>
-  <si>
     <t>Structurer le site de manière logique, éviter trop de profondeur dans la structure</t>
   </si>
   <si>
     <t>Les imbrications des titres ne sont pas logiques (h1 suivi d'un h3).</t>
   </si>
   <si>
-    <t>Revoir la structure et les titres</t>
-  </si>
-  <si>
-    <t>Décrire correctement les images dans 'alt'</t>
-  </si>
-  <si>
     <t>Balise meta name=Keyword, inutile</t>
   </si>
   <si>
@@ -159,9 +120,6 @@
     <t>Supprimer cette balise</t>
   </si>
   <si>
-    <t>Optimiser la vitesse du site : Budget de crawling &amp; expérience utilisateur</t>
-  </si>
-  <si>
     <t xml:space="preserve">Les images ne semblent pas avoir une taille correspondante à leur conteneur (ex :1.jpg et 2.jpg) </t>
   </si>
   <si>
@@ -189,9 +147,6 @@
     <t>Modifier l'expiration du cache</t>
   </si>
   <si>
-    <t>Privilégier le CSS à Javascript quand cela est possible : Googlebot et le JS</t>
-  </si>
-  <si>
     <t>On aurait pu envisager de passer le menu en HTML/CSS , le JS ne paraît pas indispensable</t>
   </si>
   <si>
@@ -219,9 +174,6 @@
     <t>Le problème vient des textes affichés sous forme d'images, ces dernières seront remplacées par du texte brut, résolvant le problème de responsive</t>
   </si>
   <si>
-    <t>Ne pas faire appel à des techniques de black-hat : Privilégier les pratiques vertueuses</t>
-  </si>
-  <si>
     <t>Détection de pratiques "black hat". Des mot clés en blanc sur font blanc dans le header</t>
   </si>
   <si>
@@ -237,36 +189,21 @@
     <t>En ce qui concerne les annuaires aujourd'hui ils n'est plus vraiment courant de les utiliser et leur gain en SEO est faible comparé au coût en terme d'UX.</t>
   </si>
   <si>
-    <t xml:space="preserve">Utiliser l'expression clé de manière pertinente : Le mieux est parfois l'ennemi du bien </t>
-  </si>
-  <si>
     <t>Mettre les mots clés dans la description, le titre du site, et un maximum de titre h (notamment H1)</t>
   </si>
   <si>
     <t>On doit maximiser l'apparation des mots clés souhaités, d'une part dans la structure du site (cf.infra) mais également dans son contenu. Néanmoins il faut toujours garder en tête que cela ne doit pas être fait au dépend de l'utilisateur</t>
   </si>
   <si>
-    <t>Optimiser les backlinks : De l'importance des réseaux sociaux en SEO et du partenariat</t>
-  </si>
-  <si>
     <t>Trouver des partenariats pertinents</t>
   </si>
   <si>
-    <t>Pas de balise méta pour les réseaux sociaux</t>
-  </si>
-  <si>
     <t>Afin d'améliorer la qualité des backlinks, penser à renseigner les meta OG et les twitter cards</t>
   </si>
   <si>
     <t>Aucune meta pour les RS dans le HTML</t>
   </si>
   <si>
-    <t>Les ajouter</t>
-  </si>
-  <si>
-    <t>Créer une machine à contenu : Un site doit être vivant</t>
-  </si>
-  <si>
     <t>Faire une machine à contenu - actu de l'agence, conseils généraux, page recrutement avec fiche de poste …</t>
   </si>
   <si>
@@ -276,9 +213,6 @@
     <t xml:space="preserve">En l'état actuel, le contenu du site restera fatalement figé. </t>
   </si>
   <si>
-    <t>Suivre l'évolution du/des mot clés : Rien n'est acquis</t>
-  </si>
-  <si>
     <t>Source globale :</t>
   </si>
   <si>
@@ -303,15 +237,9 @@
     <t xml:space="preserve">Pas de recours aux balises sémantiques </t>
   </si>
   <si>
-    <t>Les balises 'alt' des images sont mal renseignées</t>
-  </si>
-  <si>
     <t>Le cache de la page est paramétré sur 15 minutes pour une page qui est par définition assez statique (vitrine)</t>
   </si>
   <si>
-    <t>La liste des liens concernant les annuaires n' est pas pertinente, voir suspicieuse…</t>
-  </si>
-  <si>
     <t>Mettre en place Google Analytics &amp; Google Search Console. Faire une analyse trimestrielle du SEO du site.</t>
   </si>
   <si>
@@ -375,9 +303,6 @@
     <t>Ajouter l'attribut "defer" aux balises script</t>
   </si>
   <si>
-    <t>Supprimer au moins les liens vers les annuaires et notamment ceux qui semblent avoir des comportements black-hat / Chercher des partenariats du même secteur</t>
-  </si>
-  <si>
     <t>Ici on a placé les mots clés le plus souvent possible sur la page d'accueil</t>
   </si>
   <si>
@@ -388,13 +313,137 @@
   </si>
   <si>
     <t>Mettre en place une veille SEO à partir des outils proposés par Google et par d'autres sociétés (Alyze.info, Tanaguru etc…).</t>
+  </si>
+  <si>
+    <t>Problème identifié</t>
+  </si>
+  <si>
+    <t>Architecture du site</t>
+  </si>
+  <si>
+    <t>Ne pas utiliser des techniques de black-hat</t>
+  </si>
+  <si>
+    <t>Optimiser la vitesse du site</t>
+  </si>
+  <si>
+    <t>Privilégier le CSS à Javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organiser le nom de domaine pour l'indexation </t>
+  </si>
+  <si>
+    <t>Utiliser les bons mots clés</t>
+  </si>
+  <si>
+    <t>Optimiser les backlinks</t>
+  </si>
+  <si>
+    <t>Suivre l'évolution du/des mot clés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer une machine à contenu </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>✓</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                        ✓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      ✓</t>
+  </si>
+  <si>
+    <t>La langue dans le html</t>
+  </si>
+  <si>
+    <t>Le titre de la page et la meta description</t>
+  </si>
+  <si>
+    <t>L'architecture du site</t>
+  </si>
+  <si>
+    <t>La description des images</t>
+  </si>
+  <si>
+    <t>La description des réseaux sociaux</t>
+  </si>
+  <si>
+    <t>L'annuaire de liens dans le footer</t>
+  </si>
+  <si>
+    <t>Le titre dans la balise &lt;title&gt; contient « . ». Cet élément est référencé par les moteurs de recherche et est affiché comme le titre du site dans les résultats de recherche. La balise &lt;meta name= « description »&gt; affiche le texte décrivant le site dans les résultats des moteurs de recherche.</t>
+  </si>
+  <si>
+    <t>Saisir le nom du site, avec une brève description, dans la balise &lt;title&gt;. Résumer le contenu du site dans la balise &lt;meta&gt;. Le titre doit faire moins de 70 caractères et doit s’afficher sur moins de 580px, Le résumé sera affiché sur 156 caractères.</t>
+  </si>
+  <si>
+    <t>Le contraste entre la couleur de texte et la couleur de fond est trop faible</t>
+  </si>
+  <si>
+    <t>Un contraste entre le fond et le texte trop faible peut poser des difficultés de lecture.</t>
+  </si>
+  <si>
+    <t>Adapter un contraste suffisant entre le fond et le texte.</t>
+  </si>
+  <si>
+    <t>Le texte dans les images doit être proscrit</t>
+  </si>
+  <si>
+    <t>Le texte contenu dans les images ne peut pas être lu ni par les liseuses, ni par les moteurs de recherche</t>
+  </si>
+  <si>
+    <t>Ne mettre aucun texte sous format image</t>
+  </si>
+  <si>
+    <t>Le SEO local</t>
+  </si>
+  <si>
+    <t>Sur la version du site non modifiée, l'entreprise se situe à Paris.</t>
+  </si>
+  <si>
+    <t>Bien notifier la ville souhaitée en l'occurrence ici, Lyon. La recherche sera ainsi plus précice.</t>
+  </si>
+  <si>
+    <t>Les feuilles de style et les fichiers Javascript ne sont pas appelés correctement dans page2.html</t>
+  </si>
+  <si>
+    <t>Les feuilles de style appelées dans page2.html sont les versions minifiées de Bootstrap, font-awesome et et-line ; seules les versions décompressées sont présentes dans le projet. Les fichiers JavaScript de JQuery, Bootstrap et blocs pointent également vers leurs versions minifiées, alors que seules les versions décompressées sont disponibles</t>
+  </si>
+  <si>
+    <t>Contrôler les différents liens vers les fichiers externes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -464,8 +513,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +543,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -616,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -654,6 +715,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,42 +784,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,30 +793,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -749,6 +810,30 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -774,7 +859,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180109</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>249382</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1094,12 +1179,12 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AA78"/>
+  <dimension ref="A1:AA81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1107,8 +1192,8 @@
     <col min="1" max="1" width="24.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="12"/>
     <col min="3" max="3" width="99.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.5703125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="75.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="59.5703125" style="14" customWidth="1"/>
     <col min="6" max="6" width="40.85546875" style="14" customWidth="1"/>
     <col min="7" max="7" width="44.140625" style="14" customWidth="1"/>
     <col min="8" max="27" width="10.5703125" style="15" customWidth="1"/>
@@ -1116,26 +1201,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1160,670 +1245,699 @@
     </row>
     <row r="2" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="17">
+        <v>20</v>
+      </c>
+      <c r="B2" s="37">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:27" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B3" s="38"/>
+      <c r="C3" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="44"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="38"/>
+      <c r="C4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A5" s="44"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="38"/>
+      <c r="C5" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="44"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>13</v>
+      <c r="B6" s="38"/>
+      <c r="C6" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="44"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="38"/>
+      <c r="C7" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="44"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B8" s="38"/>
+      <c r="C8" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="38"/>
+      <c r="C9" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="44"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="38"/>
+      <c r="C10" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="44"/>
-      <c r="B11" s="17">
-        <v>2</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="F11" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="44"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="38"/>
+      <c r="C12" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="44"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44"/>
+      <c r="B14" s="37">
+        <v>2</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="44"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="44"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44"/>
+      <c r="B17" s="37">
+        <v>3</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="40">
+        <v>1</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="47"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="47"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="47"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="47"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="47"/>
+      <c r="B24" s="40">
+        <v>2</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" s="7" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="17">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="47"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="47"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="47"/>
+      <c r="B27" s="34">
         <v>3</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="32">
-        <v>1</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="32">
-        <v>2</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-    </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="35">
-        <v>3</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="C27" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="47"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="47"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="32">
-        <v>4</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-    </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="F29" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="47"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="35"/>
+      <c r="C30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="47"/>
-      <c r="B31" s="32">
-        <v>5</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="47"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="40">
+        <v>4</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="47"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>13</v>
+      <c r="B33" s="41"/>
+      <c r="C33" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="47"/>
-      <c r="B34" s="32">
+      <c r="B34" s="40">
+        <v>5</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="47"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="47"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="47"/>
+      <c r="B37" s="40">
         <v>6</v>
       </c>
-      <c r="C34" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="32">
+      <c r="C37" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A38" s="47"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="47"/>
+      <c r="B39" s="40">
         <v>7</v>
       </c>
-      <c r="C36" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-    </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="20" t="s">
+      <c r="C39" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A40" s="48"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="20" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="16"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
@@ -1839,7 +1953,7 @@
     <row r="44" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="10"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -2151,51 +2265,81 @@
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
     </row>
+    <row r="79" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="9"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A37"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A19:A40"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G25" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G27" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G29" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G30" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G31" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="G3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="G4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G15" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G30" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G32" r:id="rId22" location="La_popularite_du_site" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G33" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G35" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D39" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G23" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G25" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G15" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G33" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G35" r:id="rId21" location="La_popularite_du_site" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G36" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G40" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D42" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G5" r:id="rId26" location="colour" xr:uid="{8730752D-40ED-C048-8D75-A82FAD6610F1}"/>
+    <hyperlink ref="G8" r:id="rId27" location="/id/r-1609949" xr:uid="{5BDBC9C6-1A6D-444F-A461-1DE63B11B903}"/>
+    <hyperlink ref="G6" r:id="rId28" location="text_equivalents" xr:uid="{38B32451-3840-5146-B9F4-7F2497B09E9F}"/>
+    <hyperlink ref="G7" r:id="rId29" xr:uid="{1D2B9A7F-6AA3-1C4C-A0C1-C959A73BC6ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId27"/>
-  <drawing r:id="rId28"/>
+  <pageSetup orientation="landscape" r:id="rId30"/>
+  <drawing r:id="rId31"/>
 </worksheet>
 </file>
--- a/audit/P4_01_Rapport Analyse.xlsx
+++ b/audit/P4_01_Rapport Analyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macintosh/Documents/JessenRungen_4_26102021/audit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42E0A40-A422-FC47-8C21-BF1DF7657EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1D60F8-5DE0-0949-9382-5D8C1A09AEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="6360" windowWidth="24820" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10 Recommandations SEO" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>Supprimer ces mots clés cachés</t>
   </si>
   <si>
-    <t>En ce qui concerne les annuaires aujourd'hui ils n'est plus vraiment courant de les utiliser et leur gain en SEO est faible comparé au coût en terme d'UX.</t>
-  </si>
-  <si>
     <t>Mettre les mots clés dans la description, le titre du site, et un maximum de titre h (notamment H1)</t>
   </si>
   <si>
@@ -241,9 +238,6 @@
   </si>
   <si>
     <t>Mettre en place Google Analytics &amp; Google Search Console. Faire une analyse trimestrielle du SEO du site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La balise alt doit décrire l'image en question afin de permettre aux moteurs de recherche de l'individualiser et permettre une meilleure accessibilité aux malvoyants. </t>
   </si>
   <si>
     <t>Ne pas faire du redimensionnement sous CSS mais privilégier une image qui a une taille proche de son conteneur (redimensionner en amont)</t>
@@ -379,64 +373,70 @@
     <t xml:space="preserve">                      ✓</t>
   </si>
   <si>
-    <t>La langue dans le html</t>
-  </si>
-  <si>
-    <t>Le titre de la page et la meta description</t>
-  </si>
-  <si>
-    <t>L'architecture du site</t>
-  </si>
-  <si>
-    <t>La description des images</t>
-  </si>
-  <si>
-    <t>La description des réseaux sociaux</t>
-  </si>
-  <si>
-    <t>L'annuaire de liens dans le footer</t>
-  </si>
-  <si>
-    <t>Le titre dans la balise &lt;title&gt; contient « . ». Cet élément est référencé par les moteurs de recherche et est affiché comme le titre du site dans les résultats de recherche. La balise &lt;meta name= « description »&gt; affiche le texte décrivant le site dans les résultats des moteurs de recherche.</t>
-  </si>
-  <si>
-    <t>Saisir le nom du site, avec une brève description, dans la balise &lt;title&gt;. Résumer le contenu du site dans la balise &lt;meta&gt;. Le titre doit faire moins de 70 caractères et doit s’afficher sur moins de 580px, Le résumé sera affiché sur 156 caractères.</t>
-  </si>
-  <si>
-    <t>Le contraste entre la couleur de texte et la couleur de fond est trop faible</t>
-  </si>
-  <si>
     <t>Un contraste entre le fond et le texte trop faible peut poser des difficultés de lecture.</t>
   </si>
   <si>
     <t>Adapter un contraste suffisant entre le fond et le texte.</t>
   </si>
   <si>
-    <t>Le texte dans les images doit être proscrit</t>
-  </si>
-  <si>
     <t>Le texte contenu dans les images ne peut pas être lu ni par les liseuses, ni par les moteurs de recherche</t>
   </si>
   <si>
     <t>Ne mettre aucun texte sous format image</t>
   </si>
   <si>
-    <t>Le SEO local</t>
-  </si>
-  <si>
     <t>Sur la version du site non modifiée, l'entreprise se situe à Paris.</t>
   </si>
   <si>
     <t>Bien notifier la ville souhaitée en l'occurrence ici, Lyon. La recherche sera ainsi plus précice.</t>
   </si>
   <si>
-    <t>Les feuilles de style et les fichiers Javascript ne sont pas appelés correctement dans page2.html</t>
-  </si>
-  <si>
     <t>Les feuilles de style appelées dans page2.html sont les versions minifiées de Bootstrap, font-awesome et et-line ; seules les versions décompressées sont présentes dans le projet. Les fichiers JavaScript de JQuery, Bootstrap et blocs pointent également vers leurs versions minifiées, alors que seules les versions décompressées sont disponibles</t>
   </si>
   <si>
     <t>Contrôler les différents liens vers les fichiers externes</t>
+  </si>
+  <si>
+    <t>En ce qui concerne les annuaires aujourd'hui il n'est plus vraiment courant de les utiliser et leur gain en SEO est faible comparé au coût en termes d'UX.</t>
+  </si>
+  <si>
+    <t>Saisir le nom du site, avec une brève description, dans la balise &lt;titre&gt;. Le titre doit faire moins de 70 caractères et doit s’afficher sur moins de 580px.</t>
+  </si>
+  <si>
+    <t>Le titre dans la balise &lt;titre&gt; contient « . ». Cet élément est référencé par les moteurs de recherche et est affiché comme le titre du site dans les résultats de recherche.</t>
+  </si>
+  <si>
+    <t>La balise alt doit décrire l'image en question afin de permettre aux moteurs de recherche de l'individualiser et permettre une meilleure accessibilité.</t>
+  </si>
+  <si>
+    <t>L'absence d'attribut langue dans HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'absence de balise titre </t>
+  </si>
+  <si>
+    <t>L'inssufisant contraste et le manque de lisibilité du bouton contact sur la page d'accueil</t>
+  </si>
+  <si>
+    <t>L'insertion d'un texte dans une image</t>
+  </si>
+  <si>
+    <t>L'imprésition du SEO local dans le code source</t>
+  </si>
+  <si>
+    <t>Des incohérences dans la structure des titres</t>
+  </si>
+  <si>
+    <t>Le manque d'optimisation de la balise ALT</t>
+  </si>
+  <si>
+    <t>L'annuaire de liens inutile dans le footer</t>
+  </si>
+  <si>
+    <t>L'absence de description des réseaux sociaux</t>
+  </si>
+  <si>
+    <t>Des erreurs dans le chemin de certaines ressources de la page contact</t>
   </si>
 </sst>
 </file>
@@ -766,6 +766,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,30 +834,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1181,10 +1181,10 @@
   </sheetPr>
   <dimension ref="A1:AA81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>3</v>
@@ -1244,14 +1244,14 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="45">
         <v>1</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -1259,124 +1259,124 @@
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:27" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="17" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="38"/>
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="52"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="17" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>117</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>120</v>
+      <c r="A5" s="52"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>109</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="50" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="35" t="s">
         <v>123</v>
       </c>
+      <c r="D6" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>111</v>
+      </c>
       <c r="F6" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="53" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>126</v>
+      <c r="D7" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>113</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="54" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="39" t="s">
         <v>129</v>
       </c>
+      <c r="D8" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>115</v>
+      </c>
       <c r="F8" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>23</v>
@@ -1392,10 +1392,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="17" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>26</v>
@@ -1403,52 +1403,52 @@
       <c r="E10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="49" t="s">
-        <v>109</v>
+      <c r="F10" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>66</v>
-      </c>
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="17" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="17" t="s">
         <v>27</v>
       </c>
@@ -1466,12 +1466,12 @@
       </c>
     </row>
     <row r="14" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="37">
+      <c r="A14" s="52"/>
+      <c r="B14" s="45">
         <v>2</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -1479,8 +1479,8 @@
       <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="17" t="s">
         <v>49</v>
       </c>
@@ -1498,27 +1498,27 @@
       </c>
     </row>
     <row r="16" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="17" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="37">
+      <c r="A17" s="52"/>
+      <c r="B17" s="45">
         <v>3</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -1530,13 +1530,13 @@
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>47</v>
@@ -1549,14 +1549,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="48">
         <v>1</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
@@ -1564,16 +1564,16 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>32</v>
@@ -1583,14 +1583,14 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>34</v>
@@ -1600,29 +1600,29 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>36</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>38</v>
@@ -1638,12 +1638,12 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="40">
+      <c r="A24" s="55"/>
+      <c r="B24" s="48">
         <v>2</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -1651,8 +1651,8 @@
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="41"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="23" t="s">
         <v>40</v>
       </c>
@@ -1663,15 +1663,15 @@
         <v>41</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="17" t="s">
         <v>43</v>
       </c>
@@ -1679,22 +1679,22 @@
         <v>44</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="34">
+      <c r="A27" s="55"/>
+      <c r="B27" s="42">
         <v>3</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
@@ -1702,8 +1702,8 @@
       <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="17" t="s">
         <v>7</v>
       </c>
@@ -1721,8 +1721,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="17" t="s">
         <v>12</v>
       </c>
@@ -1740,29 +1740,29 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>19</v>
@@ -1776,12 +1776,12 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="40">
+      <c r="A32" s="55"/>
+      <c r="B32" s="48">
         <v>4</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
@@ -1789,31 +1789,31 @@
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="F33" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="40">
+      <c r="A34" s="55"/>
+      <c r="B34" s="48">
         <v>5</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -1821,50 +1821,50 @@
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="41"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="55"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>108</v>
+      <c r="F36" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="40">
+      <c r="A37" s="55"/>
+      <c r="B37" s="48">
         <v>6</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
@@ -1872,31 +1872,31 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="B38" s="42"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>60</v>
-      </c>
       <c r="F38" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="40">
+      <c r="A39" s="55"/>
+      <c r="B39" s="48">
         <v>7</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
@@ -1904,19 +1904,19 @@
       <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
-      <c r="B40" s="42"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>11</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="32" t="s">
         <v>62</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>63</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
